--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44342</v>
+        <v>44305</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,7 +520,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44313</v>
+        <v>44355</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>270</v>
       </c>
       <c r="N3" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O3" t="n">
         <v>21000</v>
       </c>
-      <c r="O3" t="n">
-        <v>22000</v>
-      </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44301</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -687,13 +687,13 @@
         <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44355</v>
+        <v>44313</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>270</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44355</v>
+        <v>44313</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>270</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44301</v>
+        <v>44355</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -702,7 +702,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O6" t="n">
         <v>21000</v>
       </c>
-      <c r="O6" t="n">
-        <v>22000</v>
-      </c>
       <c r="P6" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44355</v>
+        <v>44342</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44342</v>
+        <v>44355</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44305</v>
+        <v>44355</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44342</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,7 +680,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44355</v>
+        <v>44342</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44355</v>
+        <v>44313</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44313</v>
+        <v>44355</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>270</v>
       </c>
       <c r="N3" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O3" t="n">
         <v>21000</v>
       </c>
-      <c r="O3" t="n">
-        <v>22000</v>
-      </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44342</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,7 +680,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44342</v>
+        <v>44301</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44301</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -847,13 +847,13 @@
         <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -515,25 +515,25 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O2" t="n">
         <v>21000</v>
       </c>
-      <c r="O2" t="n">
-        <v>22000</v>
-      </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44355</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44342</v>
+        <v>44355</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>44342</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,7 +840,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44355</v>
+        <v>44342</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44313</v>
+        <v>44355</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>270</v>
       </c>
       <c r="N5" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O5" t="n">
         <v>21000</v>
       </c>
-      <c r="O5" t="n">
-        <v>22000</v>
-      </c>
       <c r="P5" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44342</v>
+        <v>44313</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1361</v>
+        <v>1194</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44301</v>
+        <v>44355</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -542,7 +542,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44342</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,7 +600,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44342</v>
+        <v>44313</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1361</v>
+        <v>1194</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44355</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O6" t="n">
         <v>21000</v>
       </c>
-      <c r="O6" t="n">
-        <v>22000</v>
-      </c>
       <c r="P6" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44355</v>
+        <v>44342</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44342</v>
+        <v>44355</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -675,25 +675,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O4" t="n">
         <v>21000</v>
       </c>
-      <c r="O4" t="n">
-        <v>22000</v>
-      </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44355</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -675,25 +675,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44355</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O6" t="n">
         <v>21000</v>
       </c>
-      <c r="O6" t="n">
-        <v>22000</v>
-      </c>
       <c r="P6" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44342</v>
+        <v>44301</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -515,25 +515,25 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44355</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44313</v>
+        <v>44342</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1194</v>
+        <v>1361</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44355</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -515,25 +515,25 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44355</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44342</v>
+        <v>44355</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44342</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,7 +760,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O6" t="n">
         <v>21000</v>
       </c>
-      <c r="O6" t="n">
-        <v>22000</v>
-      </c>
       <c r="P6" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44313</v>
+        <v>44355</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>270</v>
       </c>
       <c r="N2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O2" t="n">
         <v>21000</v>
       </c>
-      <c r="O2" t="n">
-        <v>22000</v>
-      </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44355</v>
+        <v>44342</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44342</v>
+        <v>44313</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1361</v>
+        <v>1194</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44355</v>
+        <v>44342</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44301</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -607,13 +607,13 @@
         <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44342</v>
+        <v>44355</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44301</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -847,13 +847,13 @@
         <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44342</v>
+        <v>44355</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44301</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -607,13 +607,13 @@
         <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44355</v>
+        <v>44313</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O5" t="n">
         <v>21000</v>
       </c>
-      <c r="O5" t="n">
-        <v>22000</v>
-      </c>
       <c r="P5" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>44342</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,7 +840,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44355</v>
+        <v>44699</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1139</v>
+        <v>1639</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44355</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44313</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1194</v>
+        <v>1361</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44342</v>
+        <v>44301</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,40 +835,120 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>250</v>
       </c>
       <c r="N6" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>20500</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>1139</v>
+      </c>
+      <c r="T6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>100107001</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Caqui</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Mankaki</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>250</v>
+      </c>
+      <c r="N7" t="n">
         <v>24000</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O7" t="n">
         <v>25000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>24500</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S6" t="n">
+      <c r="S7" t="n">
         <v>1361</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T7" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44699</v>
+        <v>44355</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>29500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1639</v>
+        <v>1139</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44355</v>
+        <v>44301</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
         <v>20000</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44313</v>
+        <v>44342</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1194</v>
+        <v>1361</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44342</v>
+        <v>44699</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -927,13 +927,13 @@
         <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1361</v>
+        <v>1639</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -595,25 +595,25 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44301</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -687,13 +687,13 @@
         <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44342</v>
+        <v>44699</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -767,13 +767,13 @@
         <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1361</v>
+        <v>1639</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44699</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1639</v>
+        <v>1361</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44342</v>
+        <v>44313</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1361</v>
+        <v>1194</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44301</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -687,13 +687,13 @@
         <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44699</v>
+        <v>44301</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>29500</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1639</v>
+        <v>1139</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44313</v>
+        <v>44342</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1194</v>
+        <v>1361</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44699</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1361</v>
+        <v>1639</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44355</v>
+        <v>44305</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44313</v>
+        <v>44342</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1194</v>
+        <v>1361</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44313</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1361</v>
+        <v>1194</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44342</v>
+        <v>44699</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -847,13 +847,13 @@
         <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1361</v>
+        <v>1639</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44699</v>
+        <v>44355</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N7" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>29500</v>
+        <v>20500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1639</v>
+        <v>1139</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44342</v>
+        <v>44699</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -607,13 +607,13 @@
         <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1361</v>
+        <v>1639</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44313</v>
+        <v>44342</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1194</v>
+        <v>1361</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44699</v>
+        <v>44301</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>29500</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1639</v>
+        <v>1139</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44305</v>
+        <v>44313</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1361</v>
+        <v>1194</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44699</v>
+        <v>44301</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -595,25 +595,25 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>29500</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1639</v>
+        <v>1139</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44342</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,7 +680,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44313</v>
+        <v>44342</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1194</v>
+        <v>1361</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44301</v>
+        <v>44355</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44355</v>
+        <v>44699</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1139</v>
+        <v>1639</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -515,25 +515,25 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O2" t="n">
         <v>21000</v>
       </c>
-      <c r="O2" t="n">
-        <v>22000</v>
-      </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44301</v>
+        <v>44699</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -595,25 +595,25 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1139</v>
+        <v>1639</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44313</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1361</v>
+        <v>1194</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44355</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44699</v>
+        <v>44355</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N7" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>29500</v>
+        <v>20500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1639</v>
+        <v>1139</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -515,25 +515,25 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44699</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1639</v>
+        <v>1361</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44313</v>
+        <v>44699</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1194</v>
+        <v>1639</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>44355</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44355</v>
+        <v>44301</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -942,7 +942,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44313</v>
+        <v>44355</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>270</v>
       </c>
       <c r="N2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O2" t="n">
         <v>21000</v>
       </c>
-      <c r="O2" t="n">
-        <v>22000</v>
-      </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44342</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,7 +600,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44699</v>
+        <v>44313</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>29500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1639</v>
+        <v>1194</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44342</v>
+        <v>44699</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -767,13 +767,13 @@
         <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1361</v>
+        <v>1639</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44355</v>
+        <v>44301</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44301</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -927,13 +927,13 @@
         <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44355</v>
+        <v>44699</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1139</v>
+        <v>1639</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44342</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,7 +600,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44313</v>
+        <v>44355</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>270</v>
       </c>
       <c r="N4" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O4" t="n">
         <v>21000</v>
       </c>
-      <c r="O4" t="n">
-        <v>22000</v>
-      </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44699</v>
+        <v>44313</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N5" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>29500</v>
+        <v>21500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1639</v>
+        <v>1194</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44342</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,7 +920,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44313</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1361</v>
+        <v>1194</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O5" t="n">
         <v>21000</v>
       </c>
-      <c r="O5" t="n">
-        <v>22000</v>
-      </c>
       <c r="P5" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44342</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,7 +920,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44699</v>
+        <v>44342</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1639</v>
+        <v>1361</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44313</v>
+        <v>44355</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>270</v>
       </c>
       <c r="N3" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O3" t="n">
         <v>21000</v>
       </c>
-      <c r="O3" t="n">
-        <v>22000</v>
-      </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44355</v>
+        <v>44699</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1139</v>
+        <v>1639</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44342</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,7 +840,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44301</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -927,13 +927,13 @@
         <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44342</v>
+        <v>44699</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1361</v>
+        <v>1639</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44355</v>
+        <v>44313</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>270</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44699</v>
+        <v>44355</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>29500</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1639</v>
+        <v>1139</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O5" t="n">
         <v>21000</v>
       </c>
-      <c r="O5" t="n">
-        <v>22000</v>
-      </c>
       <c r="P5" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>44342</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,7 +840,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44301</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -927,13 +927,13 @@
         <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44342</v>
+        <v>44305</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,7 +520,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44355</v>
+        <v>44699</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1139</v>
+        <v>1639</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44699</v>
+        <v>44313</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>29500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1639</v>
+        <v>1194</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O5" t="n">
         <v>21000</v>
       </c>
-      <c r="O5" t="n">
-        <v>22000</v>
-      </c>
       <c r="P5" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>44355</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -915,25 +915,25 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44305</v>
+        <v>44699</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1361</v>
+        <v>1639</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44699</v>
+        <v>44355</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N3" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>29500</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1639</v>
+        <v>1139</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44355</v>
+        <v>44301</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44342</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,7 +920,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44699</v>
+        <v>44301</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -515,25 +515,25 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>29500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1639</v>
+        <v>1139</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44313</v>
+        <v>44342</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1194</v>
+        <v>1361</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44342</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,7 +760,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44699</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1361</v>
+        <v>1639</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44355</v>
+        <v>44313</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>270</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44342</v>
+        <v>44355</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44313</v>
+        <v>44699</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1194</v>
+        <v>1639</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44699</v>
+        <v>44342</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -927,13 +927,13 @@
         <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1639</v>
+        <v>1361</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44301</v>
+        <v>44305</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -527,13 +527,13 @@
         <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44313</v>
+        <v>44355</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>270</v>
       </c>
       <c r="N3" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O3" t="n">
         <v>21000</v>
       </c>
-      <c r="O3" t="n">
-        <v>22000</v>
-      </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44355</v>
+        <v>44313</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44301</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -767,13 +767,13 @@
         <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44305</v>
+        <v>44699</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1361</v>
+        <v>1639</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44355</v>
+        <v>44313</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>270</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44313</v>
+        <v>44342</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1194</v>
+        <v>1361</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44301</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -767,13 +767,13 @@
         <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44699</v>
+        <v>44355</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N6" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>29500</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1639</v>
+        <v>1139</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44342</v>
+        <v>44301</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -915,25 +915,25 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44699</v>
+        <v>45043</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P2" t="n">
-        <v>29500</v>
+        <v>25500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1639</v>
+        <v>1417</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44313</v>
+        <v>44699</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1194</v>
+        <v>1639</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44342</v>
+        <v>44313</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1361</v>
+        <v>1194</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44342</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,7 +760,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44355</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44301</v>
+        <v>44355</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -942,13 +942,93 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
         <v>1139</v>
       </c>
       <c r="T7" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>44301</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>100107001</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Caqui</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Hachiya</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>250</v>
+      </c>
+      <c r="N8" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>20500</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>1139</v>
+      </c>
+      <c r="T8" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45043</v>
+        <v>44313</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>25500</v>
+        <v>21500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1417</v>
+        <v>1194</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44699</v>
+        <v>44342</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -607,13 +607,13 @@
         <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1639</v>
+        <v>1361</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44313</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1194</v>
+        <v>1361</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44342</v>
+        <v>44301</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>44699</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1361</v>
+        <v>1639</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44301</v>
+        <v>45043</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>25500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1139</v>
+        <v>1417</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44699</v>
+        <v>45071</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="N6" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P6" t="n">
-        <v>29500</v>
+        <v>23455</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1639</v>
+        <v>1303</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44355</v>
+        <v>44699</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1139</v>
+        <v>1639</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45043</v>
+        <v>44355</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -995,40 +995,120 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>Mankaki</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>270</v>
+      </c>
+      <c r="N8" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>20500</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>1139</v>
+      </c>
+      <c r="T8" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45043</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>100107001</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Caqui</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>Fuyu</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M9" t="n">
         <v>300</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N9" t="n">
         <v>25000</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O9" t="n">
         <v>26000</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>25500</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S8" t="n">
+      <c r="S9" t="n">
         <v>1417</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T9" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44313</v>
+        <v>45043</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>25500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1194</v>
+        <v>1417</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44342</v>
+        <v>44313</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1361</v>
+        <v>1194</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44301</v>
+        <v>44699</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1139</v>
+        <v>1639</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44699</v>
+        <v>44355</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N7" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>29500</v>
+        <v>20500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1639</v>
+        <v>1139</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44355</v>
+        <v>44301</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45043</v>
+        <v>44342</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O9" t="n">
         <v>25000</v>
       </c>
-      <c r="O9" t="n">
-        <v>26000</v>
-      </c>
       <c r="P9" t="n">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1417</v>
+        <v>1361</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45043</v>
+        <v>44699</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="O2" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>25500</v>
+        <v>29500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1417</v>
+        <v>1639</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44313</v>
+        <v>45071</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -595,25 +595,25 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>23455</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1194</v>
+        <v>1303</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44355</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44699</v>
+        <v>44301</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>29500</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1639</v>
+        <v>1139</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45071</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>23455</v>
+        <v>24500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1303</v>
+        <v>1361</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44355</v>
+        <v>44313</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>270</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44301</v>
+        <v>45043</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>25500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1139</v>
+        <v>1417</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44699</v>
+        <v>45043</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P2" t="n">
-        <v>29500</v>
+        <v>25500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1639</v>
+        <v>1417</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45071</v>
+        <v>44313</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -595,25 +595,25 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="N3" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>23455</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1303</v>
+        <v>1194</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44355</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44301</v>
+        <v>44699</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1139</v>
+        <v>1639</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>45071</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="N6" t="n">
+        <v>23000</v>
+      </c>
+      <c r="O6" t="n">
         <v>24000</v>
       </c>
-      <c r="O6" t="n">
-        <v>25000</v>
-      </c>
       <c r="P6" t="n">
-        <v>24500</v>
+        <v>23455</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1361</v>
+        <v>1303</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44313</v>
+        <v>44355</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>270</v>
       </c>
       <c r="N7" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O7" t="n">
         <v>21000</v>
       </c>
-      <c r="O7" t="n">
-        <v>22000</v>
-      </c>
       <c r="P7" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45043</v>
+        <v>44301</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>25500</v>
+        <v>20500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1417</v>
+        <v>1139</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44699</v>
+        <v>44313</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>29500</v>
+        <v>21500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1639</v>
+        <v>1194</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44355</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44301</v>
+        <v>44355</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -782,7 +782,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>45043</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="P6" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1361</v>
+        <v>1417</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44313</v>
+        <v>44699</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1194</v>
+        <v>1639</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45043</v>
+        <v>44342</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O8" t="n">
         <v>25000</v>
       </c>
-      <c r="O8" t="n">
-        <v>26000</v>
-      </c>
       <c r="P8" t="n">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1417</v>
+        <v>1361</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44342</v>
+        <v>44301</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P9" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44313</v>
+        <v>44699</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1194</v>
+        <v>1639</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45071</v>
+        <v>45043</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="P3" t="n">
-        <v>23455</v>
+        <v>25500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1303</v>
+        <v>1417</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44342</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,7 +680,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45043</v>
+        <v>44313</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N6" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>25500</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1417</v>
+        <v>1194</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44699</v>
+        <v>45071</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -915,25 +915,25 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="N7" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P7" t="n">
-        <v>29500</v>
+        <v>23455</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1639</v>
+        <v>1303</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44342</v>
+        <v>44301</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44301</v>
+        <v>44305</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1087,13 +1087,13 @@
         <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O9" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44699</v>
+        <v>45043</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P2" t="n">
-        <v>29500</v>
+        <v>25500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1639</v>
+        <v>1417</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45043</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -595,25 +595,25 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O3" t="n">
         <v>25000</v>
       </c>
-      <c r="O3" t="n">
-        <v>26000</v>
-      </c>
       <c r="P3" t="n">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1417</v>
+        <v>1361</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44355</v>
+        <v>44313</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>270</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O6" t="n">
         <v>21000</v>
       </c>
-      <c r="O6" t="n">
-        <v>22000</v>
-      </c>
       <c r="P6" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45071</v>
+        <v>44355</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="N7" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>23455</v>
+        <v>20500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1303</v>
+        <v>1139</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44301</v>
+        <v>44699</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1139</v>
+        <v>1639</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44305</v>
+        <v>45071</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="N9" t="n">
+        <v>23000</v>
+      </c>
+      <c r="O9" t="n">
         <v>24000</v>
       </c>
-      <c r="O9" t="n">
-        <v>25000</v>
-      </c>
       <c r="P9" t="n">
-        <v>24500</v>
+        <v>23455</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1361</v>
+        <v>1303</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45043</v>
+        <v>44355</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -515,25 +515,25 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>25500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1417</v>
+        <v>1139</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44301</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -607,13 +607,13 @@
         <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44342</v>
+        <v>45071</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -675,25 +675,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="N4" t="n">
+        <v>23000</v>
+      </c>
+      <c r="O4" t="n">
         <v>24000</v>
       </c>
-      <c r="O4" t="n">
-        <v>25000</v>
-      </c>
       <c r="P4" t="n">
-        <v>24500</v>
+        <v>23455</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1361</v>
+        <v>1303</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44313</v>
+        <v>44699</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1194</v>
+        <v>1639</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44355</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44699</v>
+        <v>45043</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P8" t="n">
-        <v>29500</v>
+        <v>25500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1639</v>
+        <v>1417</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45071</v>
+        <v>44313</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="N9" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O9" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>23455</v>
+        <v>21500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1303</v>
+        <v>1194</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44355</v>
+        <v>45043</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -515,25 +515,25 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>25500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1139</v>
+        <v>1417</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44301</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -607,13 +607,13 @@
         <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45071</v>
+        <v>44342</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -675,25 +675,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>23455</v>
+        <v>24500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1303</v>
+        <v>1361</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44699</v>
+        <v>44313</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N5" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>29500</v>
+        <v>21500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1639</v>
+        <v>1194</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44342</v>
+        <v>44301</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44355</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45043</v>
+        <v>44699</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="O8" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>25500</v>
+        <v>29500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1417</v>
+        <v>1639</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44313</v>
+        <v>45071</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="N9" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P9" t="n">
-        <v>21500</v>
+        <v>23455</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1194</v>
+        <v>1303</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44355</v>
+        <v>44313</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44301</v>
+        <v>45071</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>23455</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1139</v>
+        <v>1303</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45071</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>23455</v>
+        <v>24500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1303</v>
+        <v>1361</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44699</v>
+        <v>44342</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -767,13 +767,13 @@
         <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1639</v>
+        <v>1361</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44342</v>
+        <v>45043</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="P6" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1361</v>
+        <v>1417</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44355</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45043</v>
+        <v>44301</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>25500</v>
+        <v>20500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1417</v>
+        <v>1139</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44313</v>
+        <v>44699</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1194</v>
+        <v>1639</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44313</v>
+        <v>44355</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>270</v>
       </c>
       <c r="N2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O2" t="n">
         <v>21000</v>
       </c>
-      <c r="O2" t="n">
-        <v>22000</v>
-      </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45071</v>
+        <v>44301</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>23455</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1303</v>
+        <v>1139</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>45071</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="N4" t="n">
+        <v>23000</v>
+      </c>
+      <c r="O4" t="n">
         <v>24000</v>
       </c>
-      <c r="O4" t="n">
-        <v>25000</v>
-      </c>
       <c r="P4" t="n">
-        <v>24500</v>
+        <v>23455</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1361</v>
+        <v>1303</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44342</v>
+        <v>44699</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -767,13 +767,13 @@
         <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1361</v>
+        <v>1639</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45043</v>
+        <v>44342</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O6" t="n">
         <v>25000</v>
       </c>
-      <c r="O6" t="n">
-        <v>26000</v>
-      </c>
       <c r="P6" t="n">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1417</v>
+        <v>1361</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44355</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44301</v>
+        <v>45043</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>25500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1139</v>
+        <v>1417</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44699</v>
+        <v>44313</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N9" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>29500</v>
+        <v>21500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1639</v>
+        <v>1194</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44313</v>
+        <v>44355</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>270</v>
       </c>
       <c r="N2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O2" t="n">
         <v>21000</v>
       </c>
-      <c r="O2" t="n">
-        <v>22000</v>
-      </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45071</v>
+        <v>45043</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="P3" t="n">
-        <v>23455</v>
+        <v>25500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1303</v>
+        <v>1417</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44342</v>
+        <v>44313</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1361</v>
+        <v>1194</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45043</v>
+        <v>44301</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>25500</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1417</v>
+        <v>1139</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44355</v>
+        <v>45071</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P7" t="n">
-        <v>20500</v>
+        <v>23455</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1139</v>
+        <v>1303</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45043</v>
+        <v>44342</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O3" t="n">
         <v>25000</v>
       </c>
-      <c r="O3" t="n">
-        <v>26000</v>
-      </c>
       <c r="P3" t="n">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1417</v>
+        <v>1361</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44301</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -687,13 +687,13 @@
         <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44313</v>
+        <v>44699</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1194</v>
+        <v>1639</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44301</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -847,13 +847,13 @@
         <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45071</v>
+        <v>44313</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -915,25 +915,25 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="N7" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>23455</v>
+        <v>21500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1303</v>
+        <v>1194</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44342</v>
+        <v>45043</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="P8" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1361</v>
+        <v>1417</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44699</v>
+        <v>45071</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="N9" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P9" t="n">
-        <v>29500</v>
+        <v>23455</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1639</v>
+        <v>1303</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44355</v>
+        <v>44301</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -542,7 +542,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44301</v>
+        <v>44699</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -675,25 +675,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1139</v>
+        <v>1639</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44699</v>
+        <v>44313</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N5" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>29500</v>
+        <v>21500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1639</v>
+        <v>1194</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>45043</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="P6" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1361</v>
+        <v>1417</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44313</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1194</v>
+        <v>1361</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45043</v>
+        <v>45071</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="O8" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="P8" t="n">
-        <v>25500</v>
+        <v>23455</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1417</v>
+        <v>1303</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45071</v>
+        <v>44355</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="N9" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P9" t="n">
-        <v>23455</v>
+        <v>20500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1303</v>
+        <v>1139</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44301</v>
+        <v>44699</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -515,25 +515,25 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1139</v>
+        <v>1639</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44699</v>
+        <v>45071</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -675,25 +675,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="N4" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P4" t="n">
-        <v>29500</v>
+        <v>23455</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1639</v>
+        <v>1303</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O5" t="n">
         <v>21000</v>
       </c>
-      <c r="O5" t="n">
-        <v>22000</v>
-      </c>
       <c r="P5" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45043</v>
+        <v>44313</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N6" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>25500</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1417</v>
+        <v>1194</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>45043</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -915,25 +915,25 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="P7" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1361</v>
+        <v>1417</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45071</v>
+        <v>44305</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O8" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>23455</v>
+        <v>24500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1303</v>
+        <v>1361</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44699</v>
+        <v>44355</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>29500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1639</v>
+        <v>1139</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44342</v>
+        <v>44301</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -595,25 +595,25 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45071</v>
+        <v>44313</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -675,25 +675,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>23455</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1303</v>
+        <v>1194</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44301</v>
+        <v>45043</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>25500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1139</v>
+        <v>1417</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44313</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1194</v>
+        <v>1361</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45043</v>
+        <v>44342</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O7" t="n">
         <v>25000</v>
       </c>
-      <c r="O7" t="n">
-        <v>26000</v>
-      </c>
       <c r="P7" t="n">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1417</v>
+        <v>1361</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44305</v>
+        <v>45071</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="N8" t="n">
+        <v>23000</v>
+      </c>
+      <c r="O8" t="n">
         <v>24000</v>
       </c>
-      <c r="O8" t="n">
-        <v>25000</v>
-      </c>
       <c r="P8" t="n">
-        <v>24500</v>
+        <v>23455</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1361</v>
+        <v>1303</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44355</v>
+        <v>44699</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="O9" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1139</v>
+        <v>1639</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44355</v>
+        <v>44305</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -595,25 +595,25 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44313</v>
+        <v>45071</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -675,25 +675,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>23455</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1194</v>
+        <v>1303</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45043</v>
+        <v>44355</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N5" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>25500</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1417</v>
+        <v>1139</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>44699</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1361</v>
+        <v>1639</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44342</v>
+        <v>45043</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="P7" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1361</v>
+        <v>1417</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45071</v>
+        <v>44301</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>23455</v>
+        <v>20500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1303</v>
+        <v>1139</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44699</v>
+        <v>44313</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N9" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>29500</v>
+        <v>21500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1639</v>
+        <v>1194</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44305</v>
+        <v>44355</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44342</v>
+        <v>44301</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -595,25 +595,25 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45071</v>
+        <v>44313</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -675,25 +675,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>23455</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1303</v>
+        <v>1194</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44355</v>
+        <v>45043</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>25500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1139</v>
+        <v>1417</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44699</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1639</v>
+        <v>1361</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45043</v>
+        <v>44342</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O7" t="n">
         <v>25000</v>
       </c>
-      <c r="O7" t="n">
-        <v>26000</v>
-      </c>
       <c r="P7" t="n">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1417</v>
+        <v>1361</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44301</v>
+        <v>45071</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>23455</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1139</v>
+        <v>1303</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44313</v>
+        <v>44699</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1194</v>
+        <v>1639</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45043</v>
+        <v>44301</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -915,25 +915,25 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>25500</v>
+        <v>20500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1417</v>
+        <v>1139</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44301</v>
+        <v>45043</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>25500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1139</v>
+        <v>1417</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44305</v>
+        <v>45043</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -515,25 +515,25 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="P2" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1361</v>
+        <v>1417</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44342</v>
+        <v>44355</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1361</v>
+        <v>1139</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45071</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>23455</v>
+        <v>24500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1303</v>
+        <v>1361</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44355</v>
+        <v>44342</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1139</v>
+        <v>1361</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44699</v>
+        <v>44313</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N6" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>29500</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1639</v>
+        <v>1194</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44301</v>
+        <v>45071</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P7" t="n">
-        <v>20500</v>
+        <v>23455</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1139</v>
+        <v>1303</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45043</v>
+        <v>44699</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="O8" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>25500</v>
+        <v>29500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1417</v>
+        <v>1639</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O9" t="n">
         <v>21000</v>
       </c>
-      <c r="O9" t="n">
-        <v>22000</v>
-      </c>
       <c r="P9" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
